--- a/Resources/UI/UI목록.xlsx
+++ b/Resources/UI/UI목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ksm\Desktop\MediaProject2020-1\2020-1MediaProj\Resources\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBCFC9-F03E-41A1-BE57-38CA52DF2F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313A2C3-2468-4D39-AD8B-7E02B83A6D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-288" yWindow="564" windowWidth="6624" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18816" yWindow="588" windowWidth="4668" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brown</t>
+    <t>Olive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
